--- a/test_results_women.xlsx
+++ b/test_results_women.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasleung149/Desktop/OUTriC/varsity_calc/VarsTriCalcScore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0D300-94AA-3445-B299-06DDBFC8276B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FF93DF-EF8E-6D47-95CA-20E40C7E0BD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{206DC347-94A5-4A47-ACFA-CA653A5BE727}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Oxford</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Inion #40</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Matriculated</t>
   </si>
 </sst>
 </file>
@@ -526,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42FF4E-D428-2D4F-AEC6-D39D4E496528}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,6 +548,12 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -553,6 +565,12 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -564,6 +582,12 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -575,6 +599,12 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -586,6 +616,12 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -597,6 +633,12 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -608,6 +650,12 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -619,6 +667,12 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -630,7 +684,12 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -642,6 +701,12 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -653,6 +718,12 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -664,6 +735,12 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -675,6 +752,12 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -686,6 +769,12 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -697,6 +786,12 @@
       <c r="C15" t="s">
         <v>0</v>
       </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -708,8 +803,14 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -719,8 +820,14 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -730,8 +837,14 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -741,8 +854,14 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -752,8 +871,14 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -763,8 +888,14 @@
       <c r="C21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -774,8 +905,14 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -785,8 +922,14 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -796,8 +939,14 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -807,8 +956,14 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -818,8 +973,14 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -829,8 +990,14 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -840,8 +1007,14 @@
       <c r="C28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -851,8 +1024,14 @@
       <c r="C29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -862,8 +1041,14 @@
       <c r="C30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -873,8 +1058,14 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -884,8 +1075,14 @@
       <c r="C32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -895,8 +1092,14 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -906,8 +1109,14 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -917,8 +1126,14 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -928,8 +1143,14 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -939,8 +1160,14 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -950,8 +1177,14 @@
       <c r="C38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -961,8 +1194,14 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -972,8 +1211,14 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -983,11 +1228,17 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
   </sheetData>
